--- a/Australia data/aus_predicted_IEs.xlsx
+++ b/Australia data/aus_predicted_IEs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\GitHub\IE_prediction\Australia data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93643501-7FE6-4F9C-AAE1-368AE4A842F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68002EAD-38BE-4668-9FA5-54B79AE25B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26441,8 +26441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A54F51-355E-43C0-8D48-5448DB37BFDF}">
   <dimension ref="A1:H2161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
